--- a/Output/podsGenetic.xlsx
+++ b/Output/podsGenetic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radek\source\repos\PEA\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C13900-DEC2-4F34-A38D-6BE7A414EB05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734F7CA8-850F-4409-872B-7B7E3EA4521A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="16170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="77">
   <si>
     <t>1000 iteracji</t>
   </si>
@@ -201,6 +201,69 @@
   </si>
   <si>
     <t>100 powtorzen</t>
+  </si>
+  <si>
+    <t>bez memetycznego</t>
+  </si>
+  <si>
+    <t>memetyczny-insert</t>
+  </si>
+  <si>
+    <t>memetycz insert</t>
+  </si>
+  <si>
+    <t>najlepszy</t>
+  </si>
+  <si>
+    <t>rozwiazanie</t>
+  </si>
+  <si>
+    <t>ftv44.atsp</t>
+  </si>
+  <si>
+    <t>ftv55.atsp</t>
+  </si>
+  <si>
+    <t>ft53.atsp</t>
+  </si>
+  <si>
+    <t>ftv47.atsp</t>
+  </si>
+  <si>
+    <t>ftv64.atsp</t>
+  </si>
+  <si>
+    <t>Instancja</t>
+  </si>
+  <si>
+    <t>Czas</t>
+  </si>
+  <si>
+    <t>Jednostka</t>
+  </si>
+  <si>
+    <t>Wynik</t>
+  </si>
+  <si>
+    <t>0 wyspa</t>
+  </si>
+  <si>
+    <t>1 wyspa</t>
+  </si>
+  <si>
+    <t>2 wyspa</t>
+  </si>
+  <si>
+    <t>3 wyspa</t>
+  </si>
+  <si>
+    <t>4 wyspa</t>
+  </si>
+  <si>
+    <t>Typ memetic</t>
+  </si>
+  <si>
+    <t>dla ft53</t>
   </si>
 </sst>
 </file>
@@ -522,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:W80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,23 +1371,23 @@
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L15">
         <f>SUM(L16:L2015)</f>
-        <v>1.111071031374844</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <f t="shared" ref="M15:P15" si="0">SUM(M16:M2015)</f>
-        <v>1.1636415739334915</v>
+        <v>7</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>1.079840983662395</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>1.055121841096033</v>
+        <v>54365</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.111071031374844</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -1658,7 +1721,7 @@
         <v>3.5957842529448232E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>12</v>
       </c>
@@ -1676,7 +1739,7 @@
         <v>2.4253731343283583E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>13</v>
       </c>
@@ -1694,7 +1757,7 @@
         <v>1.5061549601737872E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>14</v>
       </c>
@@ -1712,7 +1775,7 @@
         <v>7.8828828828828822E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>15</v>
       </c>
@@ -1730,7 +1793,7 @@
         <v>1.0875475802066341E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>28</v>
       </c>
@@ -1759,7 +1822,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1791,7 +1854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1823,7 +1886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1855,7 +1918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1887,7 +1950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1919,7 +1982,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>56</v>
+      </c>
+      <c r="M45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>54</v>
       </c>
@@ -1932,8 +2003,14 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <v>1</v>
       </c>
@@ -1950,8 +2027,16 @@
         <v>4</v>
       </c>
       <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="2">
+        <v>5</v>
+      </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2">
+        <v>6</v>
+      </c>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
         <v>1</v>
       </c>
@@ -1968,8 +2053,16 @@
         <v>46</v>
       </c>
       <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -1994,23 +2087,23 @@
       <c r="J49" t="s">
         <v>3</v>
       </c>
-      <c r="K49" t="s">
+      <c r="O49" t="s">
         <v>4</v>
       </c>
-      <c r="L49" t="s">
+      <c r="P49" t="s">
         <v>45</v>
       </c>
-      <c r="M49" t="s">
+      <c r="Q49" t="s">
         <v>49</v>
       </c>
-      <c r="N49" t="s">
+      <c r="R49" t="s">
         <v>50</v>
       </c>
-      <c r="O49" t="s">
+      <c r="S49" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2038,27 +2131,27 @@
       <c r="J50">
         <v>1698.49</v>
       </c>
-      <c r="K50">
+      <c r="O50">
         <v>1613</v>
       </c>
-      <c r="L50" s="1">
-        <f>(C50-K50)/K50</f>
+      <c r="P50" s="1">
+        <f t="shared" ref="P50:P55" si="3">(C50-O50)/O50</f>
         <v>3.47179169249845E-2</v>
       </c>
-      <c r="M50" s="1">
-        <f>(E50-K50)/K50</f>
+      <c r="Q50" s="1">
+        <f t="shared" ref="Q50:Q56" si="4">(E50-O50)/O50</f>
         <v>1.6119032858028518E-2</v>
       </c>
-      <c r="N50" s="1">
-        <f>(G50-K50)/K50</f>
+      <c r="R50" s="1">
+        <f>(G50-O50)/O50</f>
         <v>3.161810291382517E-2</v>
       </c>
-      <c r="O50" s="1">
-        <f>(I50-K50)/K50</f>
+      <c r="S50" s="1">
+        <f>(I50-O50)/O50</f>
         <v>1.6119032858028518E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>12</v>
       </c>
@@ -2086,27 +2179,27 @@
       <c r="J51">
         <v>1699.26</v>
       </c>
-      <c r="K51">
+      <c r="O51">
         <v>1608</v>
       </c>
-      <c r="L51" s="1">
-        <f>(C51-K51)/K51</f>
+      <c r="P51" s="1">
+        <f t="shared" si="3"/>
         <v>2.36318407960199E-2</v>
       </c>
-      <c r="M51" s="1">
-        <f>(E51-K51)/K51</f>
+      <c r="Q51" s="1">
+        <f t="shared" si="4"/>
         <v>1.8656716417910446E-2</v>
       </c>
-      <c r="N51" s="1">
-        <f t="shared" ref="N51:N56" si="3">(G51-K51)/K51</f>
+      <c r="R51" s="1">
+        <f>(G51-O51)/O51</f>
         <v>1.8656716417910446E-2</v>
       </c>
-      <c r="O51" s="1">
-        <f t="shared" ref="O51:O54" si="4">(I51-K51)/K51</f>
+      <c r="S51" s="1">
+        <f>(I51-O51)/O51</f>
         <v>1.2437810945273632E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>13</v>
       </c>
@@ -2134,27 +2227,27 @@
       <c r="J52">
         <v>7436.71</v>
       </c>
-      <c r="K52">
+      <c r="O52">
         <v>6905</v>
       </c>
-      <c r="L52" s="1">
-        <f>(C52-K52)/K52</f>
+      <c r="P52" s="1">
+        <f t="shared" si="3"/>
         <v>2.939898624185373E-2</v>
       </c>
-      <c r="M52" s="1">
-        <f>(E52-K52)/K52</f>
+      <c r="Q52" s="1">
+        <f t="shared" si="4"/>
         <v>2.2013034033309196E-2</v>
       </c>
-      <c r="N52" s="1">
-        <f t="shared" si="3"/>
+      <c r="R52" s="1">
+        <f>(G52-O52)/O52</f>
         <v>1.5061549601737872E-2</v>
       </c>
-      <c r="O52" s="1">
-        <f t="shared" si="4"/>
+      <c r="S52" s="1">
+        <f>(I52-O52)/O52</f>
         <v>1.8682114409847937E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>14</v>
       </c>
@@ -2182,27 +2275,27 @@
       <c r="J53">
         <v>1870.9</v>
       </c>
-      <c r="K53">
+      <c r="O53">
         <v>1776</v>
       </c>
-      <c r="L53" s="1">
-        <f>(C53-K53)/K53</f>
+      <c r="P53" s="1">
+        <f t="shared" si="3"/>
         <v>7.8828828828828822E-3</v>
       </c>
-      <c r="M53" s="1">
-        <f>(E53-K53)/K53</f>
+      <c r="Q53" s="1">
+        <f t="shared" si="4"/>
         <v>1.0698198198198198E-2</v>
       </c>
-      <c r="N53" s="1">
-        <f t="shared" si="3"/>
+      <c r="R53" s="1">
+        <f>(G53-O53)/O53</f>
         <v>1.0698198198198198E-2</v>
       </c>
-      <c r="O53" s="1">
-        <f t="shared" si="4"/>
+      <c r="S53" s="1">
+        <f>(I53-O53)/O53</f>
         <v>7.8828828828828822E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>15</v>
       </c>
@@ -2230,27 +2323,27 @@
       <c r="J54">
         <v>1887.87</v>
       </c>
-      <c r="K54">
+      <c r="O54">
         <v>1839</v>
       </c>
-      <c r="L54" s="1">
-        <f>(C54-K54)/K54</f>
+      <c r="P54" s="1">
+        <f t="shared" si="3"/>
         <v>1.6313213703099511E-3</v>
       </c>
-      <c r="M54" s="1">
-        <f>(E54-K54)/K54</f>
+      <c r="Q54" s="1">
+        <f t="shared" si="4"/>
         <v>1.6313213703099511E-3</v>
       </c>
-      <c r="N54" s="1">
-        <f t="shared" si="3"/>
+      <c r="R54" s="1">
+        <f>(G54-O54)/O54</f>
         <v>3.8064165307232192E-3</v>
       </c>
-      <c r="O54" s="1">
-        <f t="shared" si="4"/>
+      <c r="S54" s="1">
+        <f>(I54-O54)/O54</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>47</v>
       </c>
@@ -2266,20 +2359,20 @@
       <c r="F55">
         <v>39553.480000000003</v>
       </c>
-      <c r="K55">
+      <c r="O55">
         <v>38673</v>
       </c>
-      <c r="L55" s="1">
-        <f>(C55-K55)/K55</f>
+      <c r="P55" s="1">
+        <f t="shared" si="3"/>
         <v>1.3808083158792957E-2</v>
       </c>
-      <c r="M55" s="1">
-        <f>(E55-K55)/K55</f>
+      <c r="Q55" s="1">
+        <f t="shared" si="4"/>
         <v>1.0420706953171464E-2</v>
       </c>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R55" s="1"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>48</v>
       </c>
@@ -2289,20 +2382,20 @@
       <c r="F56">
         <v>2182.16</v>
       </c>
-      <c r="K56">
+      <c r="O56">
         <v>1950</v>
       </c>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1">
-        <f>(E56-K56)/K56</f>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1">
+        <f t="shared" si="4"/>
         <v>8.4102564102564101E-2</v>
       </c>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R56" s="1"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>53</v>
       </c>
@@ -2322,7 +2415,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -2342,8 +2435,390 @@
         <v>902</v>
       </c>
     </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" t="s">
+        <v>58</v>
+      </c>
+      <c r="N61" t="s">
+        <v>66</v>
+      </c>
+      <c r="O61" t="s">
+        <v>67</v>
+      </c>
+      <c r="P61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>69</v>
+      </c>
+      <c r="R61" t="s">
+        <v>75</v>
+      </c>
+      <c r="S61" t="s">
+        <v>70</v>
+      </c>
+      <c r="T61" t="s">
+        <v>71</v>
+      </c>
+      <c r="U61" t="s">
+        <v>72</v>
+      </c>
+      <c r="V61" t="s">
+        <v>73</v>
+      </c>
+      <c r="W61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>59</v>
+      </c>
+      <c r="G63" t="s">
+        <v>60</v>
+      </c>
+      <c r="H63" t="s">
+        <v>45</v>
+      </c>
+      <c r="I63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <v>1791.72</v>
+      </c>
+      <c r="D64">
+        <v>1640</v>
+      </c>
+      <c r="E64">
+        <v>1663.98</v>
+      </c>
+      <c r="F64">
+        <v>1634</v>
+      </c>
+      <c r="G64">
+        <v>1613</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1.67E-2</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66">
+        <v>1791.72</v>
+      </c>
+      <c r="D66">
+        <v>1667</v>
+      </c>
+      <c r="E66">
+        <v>1676.2</v>
+      </c>
+      <c r="F66">
+        <v>1608</v>
+      </c>
+      <c r="G66">
+        <v>1608</v>
+      </c>
+      <c r="H66" s="1">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68">
+        <v>7452.64</v>
+      </c>
+      <c r="D68">
+        <v>7061</v>
+      </c>
+      <c r="E68">
+        <v>7304.32</v>
+      </c>
+      <c r="F68">
+        <v>7034</v>
+      </c>
+      <c r="G68">
+        <v>6905</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70">
+        <v>1903.8</v>
+      </c>
+      <c r="D70">
+        <v>1833</v>
+      </c>
+      <c r="E70">
+        <v>1822.76</v>
+      </c>
+      <c r="F70">
+        <v>1776</v>
+      </c>
+      <c r="G70">
+        <v>1776</v>
+      </c>
+      <c r="H70" s="1">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>65</v>
+      </c>
+      <c r="E72">
+        <v>1869.1</v>
+      </c>
+      <c r="F72">
+        <v>1839</v>
+      </c>
+      <c r="G72">
+        <v>1839</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" t="s">
+        <v>35</v>
+      </c>
+      <c r="J75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76">
+        <v>300</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>50</v>
+      </c>
+      <c r="I76">
+        <v>60</v>
+      </c>
+      <c r="J76">
+        <v>15</v>
+      </c>
+      <c r="K76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77">
+        <v>300</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77">
+        <v>6</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>50</v>
+      </c>
+      <c r="I77">
+        <v>50</v>
+      </c>
+      <c r="J77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78">
+        <v>300</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>50</v>
+      </c>
+      <c r="I78">
+        <v>50</v>
+      </c>
+      <c r="J78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79">
+        <v>300</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79">
+        <v>50</v>
+      </c>
+      <c r="I79">
+        <v>50</v>
+      </c>
+      <c r="J79">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80">
+        <v>300</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80">
+        <v>7</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>50</v>
+      </c>
+      <c r="I80">
+        <v>50</v>
+      </c>
+      <c r="J80">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="19">
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="G48:H48"/>
@@ -2358,6 +2833,11 @@
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="C46:F46"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
